--- a/data/trans_orig/P78C6_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P78C6_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC3AEBBD-46A1-469D-8C54-C019121E0C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{52C1A96D-88F4-4076-9545-9B595DE17A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9B06E812-4DCE-4E7F-8EEA-E717D70FF1C2}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{048D4B4A-D4FA-4BAA-8C25-63EA34F0C401}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="174">
   <si>
     <t>Población según si tiene resuelto el retraso en los pagos de recibos de agua, gas, calefacción, electricidad, comunidad en 2023 (Tasa respuesta: 8,46%)</t>
   </si>
@@ -71,55 +71,58 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>76,97%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>67,08%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>3,08%</t>
+    <t>2,37%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
   </si>
   <si>
     <t>100%</t>
@@ -128,430 +131,430 @@
     <t>Cadiz</t>
   </si>
   <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>55,84%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>68,51%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
   </si>
   <si>
     <t>Cordoba</t>
   </si>
   <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>62,44%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>61,76%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>63,32%</t>
+    <t>45,25%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>62,29%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>56,76%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
   </si>
   <si>
     <t>Granada</t>
   </si>
   <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>60,89%</t>
+    <t>70,3%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>59,43%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>60,08%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
   </si>
   <si>
     <t>Huelva</t>
   </si>
   <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>62,1%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
   </si>
   <si>
     <t>Jaen</t>
   </si>
   <si>
-    <t>71,85%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>61,62%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>69,84%</t>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>63,87%</t>
+  </si>
+  <si>
+    <t>64,7%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
   </si>
   <si>
     <t>Malaga</t>
   </si>
   <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>60,2%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
+    <t>69,26%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>68,64%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
   </si>
   <si>
     <t>Sevilla</t>
   </si>
   <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
   </si>
   <si>
     <t>97,6%</t>
   </si>
   <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
   </si>
   <si>
     <t>98,58%</t>
   </si>
   <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
   </si>
   <si>
     <t>97,43%</t>
   </si>
   <si>
-    <t>5,34%</t>
+    <t>5,36%</t>
   </si>
   <si>
     <t>2,4%</t>
   </si>
   <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
   </si>
   <si>
     <t>1,42%</t>
   </si>
   <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
   </si>
   <si>
     <t>2,57%</t>
   </si>
   <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -966,7 +969,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D287E00-0272-4369-8034-249F61C33BB7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65298C8F-A78C-4704-B8D6-F7C73702A059}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1087,7 +1090,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>5006</v>
+        <v>6889</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1102,7 +1105,7 @@
         <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>1600</v>
+        <v>1641</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1117,7 +1120,7 @@
         <v>8</v>
       </c>
       <c r="N4" s="7">
-        <v>6606</v>
+        <v>8530</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
@@ -1138,7 +1141,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>20</v>
@@ -1153,31 +1156,31 @@
         <v>2</v>
       </c>
       <c r="I5" s="7">
-        <v>3083</v>
+        <v>5111</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>23</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
       </c>
       <c r="N5" s="7">
-        <v>3242</v>
+        <v>5278</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1189,51 +1192,51 @@
         <v>5</v>
       </c>
       <c r="D6" s="7">
-        <v>5165</v>
+        <v>7056</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H6" s="7">
         <v>6</v>
       </c>
       <c r="I6" s="7">
-        <v>4683</v>
+        <v>6752</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M6" s="7">
         <v>11</v>
       </c>
       <c r="N6" s="7">
-        <v>9848</v>
+        <v>13808</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1242,46 +1245,46 @@
         <v>13</v>
       </c>
       <c r="D7" s="7">
-        <v>17530</v>
+        <v>17557</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H7" s="7">
         <v>27</v>
       </c>
       <c r="I7" s="7">
-        <v>21303</v>
+        <v>19924</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
         <v>40</v>
       </c>
       <c r="N7" s="7">
-        <v>38832</v>
+        <v>37481</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1293,46 +1296,46 @@
         <v>3</v>
       </c>
       <c r="D8" s="7">
-        <v>3771</v>
+        <v>3790</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
       </c>
       <c r="I8" s="7">
-        <v>2859</v>
+        <v>2668</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M8" s="7">
         <v>7</v>
       </c>
       <c r="N8" s="7">
-        <v>6630</v>
+        <v>6458</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1344,51 +1347,51 @@
         <v>16</v>
       </c>
       <c r="D9" s="7">
-        <v>21301</v>
+        <v>21347</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H9" s="7">
         <v>31</v>
       </c>
       <c r="I9" s="7">
-        <v>24162</v>
+        <v>22592</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M9" s="7">
         <v>47</v>
       </c>
       <c r="N9" s="7">
-        <v>45462</v>
+        <v>43939</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1397,46 +1400,46 @@
         <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>4232</v>
+        <v>4072</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H10" s="7">
         <v>16</v>
       </c>
       <c r="I10" s="7">
-        <v>12423</v>
+        <v>11655</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>22</v>
       </c>
       <c r="N10" s="7">
-        <v>16654</v>
+        <v>15727</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1448,46 +1451,46 @@
         <v>4</v>
       </c>
       <c r="D11" s="7">
-        <v>4953</v>
+        <v>4926</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H11" s="7">
         <v>8</v>
       </c>
       <c r="I11" s="7">
-        <v>7473</v>
+        <v>7057</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M11" s="7">
         <v>12</v>
       </c>
       <c r="N11" s="7">
-        <v>12427</v>
+        <v>11982</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1499,51 +1502,51 @@
         <v>10</v>
       </c>
       <c r="D12" s="7">
-        <v>9185</v>
+        <v>8998</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H12" s="7">
         <v>24</v>
       </c>
       <c r="I12" s="7">
-        <v>19896</v>
+        <v>18712</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M12" s="7">
         <v>34</v>
       </c>
       <c r="N12" s="7">
-        <v>29081</v>
+        <v>27709</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1552,46 +1555,46 @@
         <v>10</v>
       </c>
       <c r="D13" s="7">
-        <v>10987</v>
+        <v>11099</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
       </c>
       <c r="I13" s="7">
-        <v>13332</v>
+        <v>12389</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>29</v>
       </c>
       <c r="N13" s="7">
-        <v>24319</v>
+        <v>23488</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1603,46 +1606,46 @@
         <v>5</v>
       </c>
       <c r="D14" s="7">
-        <v>5003</v>
+        <v>4689</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>12</v>
       </c>
       <c r="I14" s="7">
-        <v>12233</v>
+        <v>11346</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>17</v>
       </c>
       <c r="N14" s="7">
-        <v>17236</v>
+        <v>16036</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1654,51 +1657,51 @@
         <v>15</v>
       </c>
       <c r="D15" s="7">
-        <v>15990</v>
+        <v>15788</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H15" s="7">
         <v>31</v>
       </c>
       <c r="I15" s="7">
-        <v>25565</v>
+        <v>23735</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M15" s="7">
         <v>46</v>
       </c>
       <c r="N15" s="7">
-        <v>41555</v>
+        <v>39524</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1707,10 +1710,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>599</v>
+        <v>542</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>21</v>
@@ -1722,13 +1725,13 @@
         <v>4</v>
       </c>
       <c r="I16" s="7">
-        <v>944</v>
+        <v>903</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -1737,13 +1740,13 @@
         <v>5</v>
       </c>
       <c r="N16" s="7">
-        <v>1542</v>
+        <v>1445</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -1758,10 +1761,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>540</v>
+        <v>492</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>21</v>
@@ -1773,31 +1776,31 @@
         <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>401</v>
+        <v>363</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
       </c>
       <c r="N17" s="7">
-        <v>941</v>
+        <v>855</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1809,51 +1812,51 @@
         <v>2</v>
       </c>
       <c r="D18" s="7">
-        <v>1139</v>
+        <v>1034</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H18" s="7">
         <v>5</v>
       </c>
       <c r="I18" s="7">
-        <v>1345</v>
+        <v>1266</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M18" s="7">
         <v>7</v>
       </c>
       <c r="N18" s="7">
-        <v>2483</v>
+        <v>2300</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1862,46 +1865,46 @@
         <v>8</v>
       </c>
       <c r="D19" s="7">
-        <v>6691</v>
+        <v>6499</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
       </c>
       <c r="I19" s="7">
-        <v>4573</v>
+        <v>4299</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M19" s="7">
         <v>14</v>
       </c>
       <c r="N19" s="7">
-        <v>11264</v>
+        <v>10797</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1913,46 +1916,46 @@
         <v>6</v>
       </c>
       <c r="D20" s="7">
-        <v>2621</v>
+        <v>2588</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H20" s="7">
         <v>13</v>
       </c>
       <c r="I20" s="7">
-        <v>8579</v>
+        <v>7878</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M20" s="7">
         <v>19</v>
       </c>
       <c r="N20" s="7">
-        <v>11200</v>
+        <v>10467</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1964,51 +1967,51 @@
         <v>14</v>
       </c>
       <c r="D21" s="7">
-        <v>9312</v>
+        <v>9087</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H21" s="7">
         <v>19</v>
       </c>
       <c r="I21" s="7">
-        <v>13152</v>
+        <v>12177</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M21" s="7">
         <v>33</v>
       </c>
       <c r="N21" s="7">
-        <v>22464</v>
+        <v>21264</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2017,46 +2020,46 @@
         <v>10</v>
       </c>
       <c r="D22" s="7">
-        <v>9740</v>
+        <v>9822</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H22" s="7">
         <v>39</v>
       </c>
       <c r="I22" s="7">
-        <v>27077</v>
+        <v>25353</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M22" s="7">
         <v>49</v>
       </c>
       <c r="N22" s="7">
-        <v>36818</v>
+        <v>35175</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2068,46 +2071,46 @@
         <v>6</v>
       </c>
       <c r="D23" s="7">
-        <v>4475</v>
+        <v>4359</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H23" s="7">
         <v>13</v>
       </c>
       <c r="I23" s="7">
-        <v>12519</v>
+        <v>11583</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M23" s="7">
         <v>19</v>
       </c>
       <c r="N23" s="7">
-        <v>16994</v>
+        <v>15942</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2119,51 +2122,51 @@
         <v>16</v>
       </c>
       <c r="D24" s="7">
-        <v>14215</v>
+        <v>14181</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H24" s="7">
         <v>52</v>
       </c>
       <c r="I24" s="7">
-        <v>39596</v>
+        <v>36936</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M24" s="7">
         <v>68</v>
       </c>
       <c r="N24" s="7">
-        <v>53812</v>
+        <v>51117</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2172,46 +2175,46 @@
         <v>198</v>
       </c>
       <c r="D25" s="7">
-        <v>193170</v>
+        <v>163530</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H25" s="7">
         <v>278</v>
       </c>
       <c r="I25" s="7">
-        <v>218265</v>
+        <v>180983</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M25" s="7">
         <v>476</v>
       </c>
       <c r="N25" s="7">
-        <v>411435</v>
+        <v>344513</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2223,46 +2226,46 @@
         <v>10</v>
       </c>
       <c r="D26" s="7">
-        <v>10901</v>
+        <v>9260</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H26" s="7">
         <v>8</v>
       </c>
       <c r="I26" s="7">
-        <v>7113</v>
+        <v>5892</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M26" s="7">
         <v>18</v>
       </c>
       <c r="N26" s="7">
-        <v>18014</v>
+        <v>15152</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2274,46 +2277,46 @@
         <v>208</v>
       </c>
       <c r="D27" s="7">
-        <v>204071</v>
+        <v>172790</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H27" s="7">
         <v>286</v>
       </c>
       <c r="I27" s="7">
-        <v>225378</v>
+        <v>186875</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M27" s="7">
         <v>494</v>
       </c>
       <c r="N27" s="7">
-        <v>429449</v>
+        <v>359665</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2327,46 +2330,46 @@
         <v>250</v>
       </c>
       <c r="D28" s="7">
-        <v>247954</v>
+        <v>220010</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H28" s="7">
         <v>393</v>
       </c>
       <c r="I28" s="7">
-        <v>299516</v>
+        <v>257146</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M28" s="7">
         <v>643</v>
       </c>
       <c r="N28" s="7">
-        <v>547470</v>
+        <v>477156</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2378,46 +2381,46 @@
         <v>36</v>
       </c>
       <c r="D29" s="7">
-        <v>32424</v>
+        <v>30271</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H29" s="7">
         <v>61</v>
       </c>
       <c r="I29" s="7">
-        <v>54260</v>
+        <v>51899</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M29" s="7">
         <v>97</v>
       </c>
       <c r="N29" s="7">
-        <v>86684</v>
+        <v>82170</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2429,51 +2432,51 @@
         <v>286</v>
       </c>
       <c r="D30" s="7">
-        <v>280378</v>
+        <v>250281</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H30" s="7">
         <v>454</v>
       </c>
       <c r="I30" s="7">
-        <v>353776</v>
+        <v>309045</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M30" s="7">
         <v>740</v>
       </c>
       <c r="N30" s="7">
-        <v>634154</v>
+        <v>559326</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
